--- a/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.system.document.xlsx
+++ b/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/falcon.system.document.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4201817-5970-AA43-A0F0-3648D058C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B54C67-6A63-DE42-B0BB-E7745A713097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60420" yWindow="-8900" windowWidth="46740" windowHeight="32900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="68600" yWindow="-1700" windowWidth="38560" windowHeight="25700" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>active</t>
   </si>
@@ -137,22 +137,49 @@
   </si>
   <si>
     <t>be0f8b9b-bff1-4d38-af64-02efbb17a390</t>
-  </si>
-  <si>
-    <t>读取目录文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>086d23da-6542-46e2-88f9-e848d7df5200</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b398ad8-0d8c-4dab-8954-85130b86d973</t>
+  </si>
+  <si>
+    <t>上传</t>
+  </si>
+  <si>
+    <t>7240209a-22d8-4ce5-a8a3-108c177354d9</t>
+  </si>
+  <si>
+    <t>下载</t>
+  </si>
+  <si>
+    <t>07032059-d5c8-4de5-818a-0dbea9aabb64</t>
+  </si>
+  <si>
+    <t>fe168b82-790e-4449-9e82-073567e46617</t>
+  </si>
+  <si>
+    <t>9c735d2b-5489-49df-9e84-eab1d1631772</t>
+  </si>
+  <si>
+    <t>读取文档</t>
+  </si>
+  <si>
+    <t>搜索文档</t>
+  </si>
+  <si>
+    <t>目录树</t>
+  </si>
+  <si>
+    <t>回收站功能</t>
+  </si>
+  <si>
+    <t>文档重命名</t>
+  </si>
+  <si>
+    <t>文档清除</t>
   </si>
 </sst>
 </file>
@@ -680,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A3:K14"/>
+  <dimension ref="A3:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -702,7 +729,7 @@
     <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -713,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +749,7 @@
       </c>
       <c r="C4" s="11"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -731,7 +758,7 @@
       </c>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
@@ -739,10 +766,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
@@ -750,112 +777,167 @@
         <v>33</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+      <c r="C13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G19" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K19" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
